--- a/chooseschool/excel/2022南京林业大学.xlsx
+++ b/chooseschool/excel/2022南京林业大学.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7229375-F408-4E89-A642-AC0347DFF2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8718689F-3231-40F5-827A-0E3CF1D1A2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="273">
   <si>
     <r>
       <rPr>
@@ -2960,6 +2960,10 @@
   </si>
   <si>
     <t>录取成绩</t>
+  </si>
+  <si>
+    <t>学费</t>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3021,7 +3025,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3029,6 +3033,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3369,10 +3376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:G239"/>
+  <dimension ref="A1:H239"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD71"/>
+    <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
+      <selection activeCell="H104" sqref="H104:H239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3384,7 +3391,7 @@
     <col min="5" max="7" width="8.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>265</v>
       </c>
@@ -3406,8 +3413,11 @@
       <c r="G1" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H1" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -3429,8 +3439,11 @@
       <c r="G2" s="2">
         <v>67.849999999999994</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H2" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -3452,8 +3465,11 @@
       <c r="G3" s="2">
         <v>68.91</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H3" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -3475,8 +3491,11 @@
       <c r="G4" s="2">
         <v>63.82</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H4" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -3498,8 +3517,11 @@
       <c r="G5" s="2">
         <v>62.93</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H5" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -3521,8 +3543,11 @@
       <c r="G6" s="2">
         <v>67.069999999999993</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H6" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -3544,8 +3569,11 @@
       <c r="G7" s="2">
         <v>66.95</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H7" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
@@ -3567,8 +3595,11 @@
       <c r="G8" s="2">
         <v>73.88</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H8" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>34</v>
       </c>
@@ -3590,8 +3621,11 @@
       <c r="G9" s="2">
         <v>65.739999999999995</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H9" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -3613,8 +3647,11 @@
       <c r="G10" s="2">
         <v>67.150000000000006</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H10" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
@@ -3636,8 +3673,11 @@
       <c r="G11" s="2">
         <v>66.13</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H11" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -3659,8 +3699,11 @@
       <c r="G12" s="2">
         <v>67.17</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H12" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -3682,8 +3725,11 @@
       <c r="G13" s="2">
         <v>65.239999999999995</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H13" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
@@ -3705,8 +3751,11 @@
       <c r="G14" s="2">
         <v>65.510000000000005</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H14" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
@@ -3728,8 +3777,11 @@
       <c r="G15" s="2">
         <v>63.88</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H15" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
@@ -3751,8 +3803,11 @@
       <c r="G16" s="2">
         <v>66.25</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H16" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
@@ -3774,8 +3829,11 @@
       <c r="G17" s="2">
         <v>66.06</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H17" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
@@ -3797,8 +3855,11 @@
       <c r="G18" s="2">
         <v>65.12</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H18" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>4</v>
       </c>
@@ -3820,8 +3881,11 @@
       <c r="G19" s="2">
         <v>64.099999999999994</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H19" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
@@ -3843,8 +3907,11 @@
       <c r="G20" s="2">
         <v>64.45</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H20" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>4</v>
       </c>
@@ -3866,8 +3933,11 @@
       <c r="G21" s="2">
         <v>65.86</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H21" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>4</v>
       </c>
@@ -3889,8 +3959,11 @@
       <c r="G22" s="2">
         <v>72.27</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H22" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>4</v>
       </c>
@@ -3912,8 +3985,11 @@
       <c r="G23" s="2">
         <v>68.040000000000006</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H23" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>4</v>
       </c>
@@ -3935,8 +4011,11 @@
       <c r="G24" s="2">
         <v>66</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H24" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>4</v>
       </c>
@@ -3958,8 +4037,11 @@
       <c r="G25" s="2">
         <v>70.64</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H25" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>4</v>
       </c>
@@ -3981,8 +4063,11 @@
       <c r="G26" s="2">
         <v>73.39</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H26" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>4</v>
       </c>
@@ -4004,8 +4089,11 @@
       <c r="G27" s="2">
         <v>74.41</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H27" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>4</v>
       </c>
@@ -4027,8 +4115,11 @@
       <c r="G28" s="2">
         <v>69.7</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H28" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>4</v>
       </c>
@@ -4050,8 +4141,11 @@
       <c r="G29" s="2">
         <v>66.89</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H29" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>4</v>
       </c>
@@ -4073,8 +4167,11 @@
       <c r="G30" s="2">
         <v>67.27</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H30" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>4</v>
       </c>
@@ -4096,8 +4193,11 @@
       <c r="G31" s="2">
         <v>65.73</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H31" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>4</v>
       </c>
@@ -4119,8 +4219,11 @@
       <c r="G32" s="2">
         <v>68.849999999999994</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H32" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>4</v>
       </c>
@@ -4142,8 +4245,11 @@
       <c r="G33" s="2">
         <v>68.41</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H33" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>4</v>
       </c>
@@ -4165,8 +4271,11 @@
       <c r="G34" s="2">
         <v>67.069999999999993</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H34" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>4</v>
       </c>
@@ -4188,8 +4297,11 @@
       <c r="G35" s="2">
         <v>64.739999999999995</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H35" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>4</v>
       </c>
@@ -4211,8 +4323,11 @@
       <c r="G36" s="2">
         <v>69.89</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H36" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>4</v>
       </c>
@@ -4234,8 +4349,11 @@
       <c r="G37" s="2">
         <v>64.760000000000005</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H37" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>4</v>
       </c>
@@ -4257,8 +4375,11 @@
       <c r="G38" s="2">
         <v>70.27</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H38" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>4</v>
       </c>
@@ -4280,8 +4401,11 @@
       <c r="G39" s="2">
         <v>73.010000000000005</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H39" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>4</v>
       </c>
@@ -4303,8 +4427,11 @@
       <c r="G40" s="2">
         <v>67.13</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H40" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>4</v>
       </c>
@@ -4326,8 +4453,11 @@
       <c r="G41" s="2">
         <v>65.459999999999994</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H41" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>4</v>
       </c>
@@ -4349,8 +4479,11 @@
       <c r="G42" s="2">
         <v>66.430000000000007</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H42" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>4</v>
       </c>
@@ -4372,8 +4505,11 @@
       <c r="G43" s="2">
         <v>72.930000000000007</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H43" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>4</v>
       </c>
@@ -4395,8 +4531,11 @@
       <c r="G44" s="2">
         <v>66.87</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H44" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>4</v>
       </c>
@@ -4418,8 +4557,11 @@
       <c r="G45" s="2">
         <v>63.89</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H45" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>4</v>
       </c>
@@ -4441,8 +4583,11 @@
       <c r="G46" s="2">
         <v>69.45</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H46" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>4</v>
       </c>
@@ -4464,8 +4609,11 @@
       <c r="G47" s="2">
         <v>65.709999999999994</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H47" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>4</v>
       </c>
@@ -4487,8 +4635,11 @@
       <c r="G48" s="2">
         <v>66.040000000000006</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H48" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>4</v>
       </c>
@@ -4510,8 +4661,11 @@
       <c r="G49" s="2">
         <v>67.69</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H49" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>4</v>
       </c>
@@ -4533,8 +4687,11 @@
       <c r="G50" s="2">
         <v>67.3</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H50" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>4</v>
       </c>
@@ -4556,8 +4713,11 @@
       <c r="G51" s="2">
         <v>73.180000000000007</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H51" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>4</v>
       </c>
@@ -4579,8 +4739,11 @@
       <c r="G52" s="2">
         <v>80.47</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H52" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>4</v>
       </c>
@@ -4602,8 +4765,11 @@
       <c r="G53" s="2">
         <v>77.58</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H53" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>4</v>
       </c>
@@ -4625,8 +4791,11 @@
       <c r="G54" s="2">
         <v>73.19</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H54" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>4</v>
       </c>
@@ -4648,8 +4817,11 @@
       <c r="G55" s="2">
         <v>64.37</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H55" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>4</v>
       </c>
@@ -4671,8 +4843,11 @@
       <c r="G56" s="2">
         <v>68.650000000000006</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H56" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>4</v>
       </c>
@@ -4694,8 +4869,11 @@
       <c r="G57" s="2">
         <v>64.599999999999994</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H57" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>4</v>
       </c>
@@ -4717,8 +4895,11 @@
       <c r="G58" s="2">
         <v>64.900000000000006</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H58" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>4</v>
       </c>
@@ -4740,8 +4921,11 @@
       <c r="G59" s="2">
         <v>67.650000000000006</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H59" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>4</v>
       </c>
@@ -4763,8 +4947,11 @@
       <c r="G60" s="2">
         <v>65.61</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H60" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>4</v>
       </c>
@@ -4786,8 +4973,11 @@
       <c r="G61" s="2">
         <v>67.97</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H61" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>4</v>
       </c>
@@ -4809,8 +4999,11 @@
       <c r="G62" s="2">
         <v>66.73</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H62" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>4</v>
       </c>
@@ -4832,8 +5025,11 @@
       <c r="G63" s="2">
         <v>80.599999999999994</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H63" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>4</v>
       </c>
@@ -4855,8 +5051,11 @@
       <c r="G64" s="2">
         <v>78.8</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H64" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>4</v>
       </c>
@@ -4878,8 +5077,11 @@
       <c r="G65" s="2">
         <v>80.569999999999993</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H65" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>4</v>
       </c>
@@ -4901,8 +5103,11 @@
       <c r="G66" s="2">
         <v>77.33</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H66" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>4</v>
       </c>
@@ -4924,8 +5129,11 @@
       <c r="G67" s="2">
         <v>79.13</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H67" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>4</v>
       </c>
@@ -4947,8 +5155,11 @@
       <c r="G68" s="2">
         <v>75.3</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H68" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>4</v>
       </c>
@@ -4970,8 +5181,11 @@
       <c r="G69" s="2">
         <v>79.900000000000006</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H69" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>4</v>
       </c>
@@ -4993,8 +5207,11 @@
       <c r="G70" s="2">
         <v>77.83</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H70" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>4</v>
       </c>
@@ -5016,8 +5233,11 @@
       <c r="G71" s="2">
         <v>80.2</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H71" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>4</v>
       </c>
@@ -5039,8 +5259,11 @@
       <c r="G72" s="2">
         <v>78.900000000000006</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H72" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>4</v>
       </c>
@@ -5062,8 +5285,11 @@
       <c r="G73" s="2">
         <v>79.67</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H73" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>4</v>
       </c>
@@ -5085,8 +5311,11 @@
       <c r="G74" s="2">
         <v>75.8</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H74" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>4</v>
       </c>
@@ -5108,8 +5337,11 @@
       <c r="G75" s="2">
         <v>76.930000000000007</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H75" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>4</v>
       </c>
@@ -5131,8 +5363,11 @@
       <c r="G76" s="2">
         <v>82.93</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H76" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>4</v>
       </c>
@@ -5154,8 +5389,11 @@
       <c r="G77" s="2">
         <v>84.17</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H77" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>4</v>
       </c>
@@ -5177,8 +5415,11 @@
       <c r="G78" s="2">
         <v>81.069999999999993</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H78" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>4</v>
       </c>
@@ -5200,8 +5441,11 @@
       <c r="G79" s="2">
         <v>76.930000000000007</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H79" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>4</v>
       </c>
@@ -5223,8 +5467,11 @@
       <c r="G80" s="2">
         <v>79.23</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H80" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>4</v>
       </c>
@@ -5246,8 +5493,11 @@
       <c r="G81" s="2">
         <v>78.7</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H81" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>4</v>
       </c>
@@ -5269,8 +5519,11 @@
       <c r="G82" s="2">
         <v>79.37</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H82" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>4</v>
       </c>
@@ -5292,8 +5545,11 @@
       <c r="G83" s="2">
         <v>76.930000000000007</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H83" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>4</v>
       </c>
@@ -5315,8 +5571,11 @@
       <c r="G84" s="2">
         <v>75.430000000000007</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H84" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>4</v>
       </c>
@@ -5338,8 +5597,11 @@
       <c r="G85" s="2">
         <v>76.63</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H85" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>4</v>
       </c>
@@ -5361,8 +5623,11 @@
       <c r="G86" s="2">
         <v>77</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H86" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>4</v>
       </c>
@@ -5384,8 +5649,11 @@
       <c r="G87" s="2">
         <v>79.2</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H87" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>4</v>
       </c>
@@ -5407,8 +5675,11 @@
       <c r="G88" s="2">
         <v>76.900000000000006</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H88" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>4</v>
       </c>
@@ -5430,8 +5701,11 @@
       <c r="G89" s="2">
         <v>78.7</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H89" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>4</v>
       </c>
@@ -5453,8 +5727,11 @@
       <c r="G90" s="2">
         <v>78.7</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H90" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>4</v>
       </c>
@@ -5476,8 +5753,11 @@
       <c r="G91" s="2">
         <v>78.33</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H91" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>4</v>
       </c>
@@ -5499,8 +5779,11 @@
       <c r="G92" s="2">
         <v>76.13</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H92" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>4</v>
       </c>
@@ -5522,8 +5805,11 @@
       <c r="G93" s="2">
         <v>75.400000000000006</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H93" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>4</v>
       </c>
@@ -5545,8 +5831,11 @@
       <c r="G94" s="2">
         <v>76.53</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H94" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>4</v>
       </c>
@@ -5568,8 +5857,11 @@
       <c r="G95" s="2">
         <v>76.2</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H95" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>4</v>
       </c>
@@ -5591,8 +5883,11 @@
       <c r="G96" s="2">
         <v>75.53</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H96" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>4</v>
       </c>
@@ -5614,8 +5909,11 @@
       <c r="G97" s="2">
         <v>76.099999999999994</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H97" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>4</v>
       </c>
@@ -5637,8 +5935,11 @@
       <c r="G98" s="2">
         <v>81.5</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H98" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>4</v>
       </c>
@@ -5660,8 +5961,11 @@
       <c r="G99" s="2">
         <v>75.37</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H99" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>4</v>
       </c>
@@ -5683,8 +5987,11 @@
       <c r="G100" s="2">
         <v>79.97</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H100" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>4</v>
       </c>
@@ -5706,8 +6013,11 @@
       <c r="G101" s="2">
         <v>79.8</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H101" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>4</v>
       </c>
@@ -5729,8 +6039,11 @@
       <c r="G102" s="2">
         <v>75.83</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H102" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>4</v>
       </c>
@@ -5752,8 +6065,11 @@
       <c r="G103" s="2">
         <v>76.77</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H103" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>4</v>
       </c>
@@ -5775,8 +6091,11 @@
       <c r="G104" s="2">
         <v>72.8</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H104" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>4</v>
       </c>
@@ -5798,8 +6117,11 @@
       <c r="G105" s="2">
         <v>75.099999999999994</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H105" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>4</v>
       </c>
@@ -5821,8 +6143,11 @@
       <c r="G106" s="2">
         <v>74.73</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H106" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>4</v>
       </c>
@@ -5844,8 +6169,11 @@
       <c r="G107" s="2">
         <v>69.599999999999994</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H107" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>4</v>
       </c>
@@ -5867,8 +6195,11 @@
       <c r="G108" s="2">
         <v>72.5</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H108" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>4</v>
       </c>
@@ -5890,8 +6221,11 @@
       <c r="G109" s="2">
         <v>75.27</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H109" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>4</v>
       </c>
@@ -5913,8 +6247,11 @@
       <c r="G110" s="2">
         <v>71.33</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H110" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>4</v>
       </c>
@@ -5936,8 +6273,11 @@
       <c r="G111" s="2">
         <v>71.77</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H111" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>4</v>
       </c>
@@ -5959,8 +6299,11 @@
       <c r="G112" s="2">
         <v>74.069999999999993</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H112" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>4</v>
       </c>
@@ -5982,8 +6325,11 @@
       <c r="G113" s="2">
         <v>69.5</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H113" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>4</v>
       </c>
@@ -6005,8 +6351,11 @@
       <c r="G114" s="2">
         <v>71.77</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H114" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>4</v>
       </c>
@@ -6028,8 +6377,11 @@
       <c r="G115" s="2">
         <v>72.099999999999994</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H115" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>4</v>
       </c>
@@ -6051,8 +6403,11 @@
       <c r="G116" s="2">
         <v>72.73</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H116" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>4</v>
       </c>
@@ -6074,8 +6429,11 @@
       <c r="G117" s="2">
         <v>77.47</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H117" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>4</v>
       </c>
@@ -6097,8 +6455,11 @@
       <c r="G118" s="2">
         <v>68.5</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H118" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>4</v>
       </c>
@@ -6120,8 +6481,11 @@
       <c r="G119" s="2">
         <v>70.17</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H119" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>4</v>
       </c>
@@ -6143,8 +6507,11 @@
       <c r="G120" s="2">
         <v>71.2</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H120" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>4</v>
       </c>
@@ -6166,8 +6533,11 @@
       <c r="G121" s="2">
         <v>70.37</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H121" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>4</v>
       </c>
@@ -6189,8 +6559,11 @@
       <c r="G122" s="2">
         <v>70.5</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H122" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>4</v>
       </c>
@@ -6212,8 +6585,11 @@
       <c r="G123" s="2">
         <v>68.569999999999993</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H123" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>4</v>
       </c>
@@ -6235,8 +6611,11 @@
       <c r="G124" s="2">
         <v>72.3</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H124" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>4</v>
       </c>
@@ -6258,8 +6637,11 @@
       <c r="G125" s="2">
         <v>72</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H125" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>4</v>
       </c>
@@ -6281,8 +6663,11 @@
       <c r="G126" s="2">
         <v>71.930000000000007</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H126" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>4</v>
       </c>
@@ -6304,8 +6689,11 @@
       <c r="G127" s="2">
         <v>69.83</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H127" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>4</v>
       </c>
@@ -6327,8 +6715,11 @@
       <c r="G128" s="2">
         <v>75.97</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H128" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>4</v>
       </c>
@@ -6350,8 +6741,11 @@
       <c r="G129" s="2">
         <v>68.569999999999993</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H129" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>4</v>
       </c>
@@ -6373,8 +6767,11 @@
       <c r="G130" s="2">
         <v>73.8</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H130" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>4</v>
       </c>
@@ -6396,8 +6793,11 @@
       <c r="G131" s="2">
         <v>70.400000000000006</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H131" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>4</v>
       </c>
@@ -6419,8 +6819,11 @@
       <c r="G132" s="2">
         <v>71.400000000000006</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H132" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>4</v>
       </c>
@@ -6442,8 +6845,11 @@
       <c r="G133" s="2">
         <v>69.17</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H133" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>4</v>
       </c>
@@ -6465,8 +6871,11 @@
       <c r="G134" s="2">
         <v>73.37</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H134" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>4</v>
       </c>
@@ -6488,8 +6897,11 @@
       <c r="G135" s="2">
         <v>71.63</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H135" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>4</v>
       </c>
@@ -6511,8 +6923,11 @@
       <c r="G136" s="2">
         <v>73.03</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H136" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>4</v>
       </c>
@@ -6534,8 +6949,11 @@
       <c r="G137" s="2">
         <v>73.569999999999993</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H137" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>4</v>
       </c>
@@ -6557,8 +6975,11 @@
       <c r="G138" s="2">
         <v>72.900000000000006</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H138" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>4</v>
       </c>
@@ -6580,8 +7001,11 @@
       <c r="G139" s="2">
         <v>70.430000000000007</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H139" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>4</v>
       </c>
@@ -6603,8 +7027,11 @@
       <c r="G140" s="2">
         <v>73.400000000000006</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H140" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>4</v>
       </c>
@@ -6626,8 +7053,11 @@
       <c r="G141" s="2">
         <v>73.3</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H141" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>4</v>
       </c>
@@ -6649,8 +7079,11 @@
       <c r="G142" s="2">
         <v>74.47</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H142" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>4</v>
       </c>
@@ -6672,8 +7105,11 @@
       <c r="G143" s="2">
         <v>71.569999999999993</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H143" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>4</v>
       </c>
@@ -6695,8 +7131,11 @@
       <c r="G144" s="2">
         <v>70.099999999999994</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H144" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>4</v>
       </c>
@@ -6718,8 +7157,11 @@
       <c r="G145" s="2">
         <v>69.63</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H145" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>4</v>
       </c>
@@ -6741,8 +7183,11 @@
       <c r="G146" s="2">
         <v>70.53</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H146" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>4</v>
       </c>
@@ -6764,8 +7209,11 @@
       <c r="G147" s="2">
         <v>72.63</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H147" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>4</v>
       </c>
@@ -6787,8 +7235,11 @@
       <c r="G148" s="2">
         <v>69.17</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H148" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>4</v>
       </c>
@@ -6810,8 +7261,11 @@
       <c r="G149" s="2">
         <v>75.099999999999994</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H149" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>4</v>
       </c>
@@ -6833,8 +7287,11 @@
       <c r="G150" s="2">
         <v>69</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H150" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>4</v>
       </c>
@@ -6856,8 +7313,11 @@
       <c r="G151" s="2">
         <v>70.27</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H151" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>4</v>
       </c>
@@ -6879,8 +7339,11 @@
       <c r="G152" s="2">
         <v>72.069999999999993</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H152" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>4</v>
       </c>
@@ -6902,8 +7365,11 @@
       <c r="G153" s="2">
         <v>72.430000000000007</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H153" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>4</v>
       </c>
@@ -6925,8 +7391,11 @@
       <c r="G154" s="2">
         <v>68.37</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H154" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>4</v>
       </c>
@@ -6948,8 +7417,11 @@
       <c r="G155" s="2">
         <v>71.53</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H155" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>4</v>
       </c>
@@ -6971,8 +7443,11 @@
       <c r="G156" s="2">
         <v>67.37</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H156" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>4</v>
       </c>
@@ -6994,8 +7469,11 @@
       <c r="G157" s="2">
         <v>72.569999999999993</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H157" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>4</v>
       </c>
@@ -7017,8 +7495,11 @@
       <c r="G158" s="2">
         <v>72.73</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H158" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>4</v>
       </c>
@@ -7040,8 +7521,11 @@
       <c r="G159" s="2">
         <v>74.87</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H159" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>4</v>
       </c>
@@ -7063,8 +7547,11 @@
       <c r="G160" s="2">
         <v>69.13</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H160" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>4</v>
       </c>
@@ -7086,8 +7573,11 @@
       <c r="G161" s="2">
         <v>74.33</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H161" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>4</v>
       </c>
@@ -7109,8 +7599,11 @@
       <c r="G162" s="2">
         <v>73.83</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H162" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>4</v>
       </c>
@@ -7132,8 +7625,11 @@
       <c r="G163" s="2">
         <v>74.17</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H163" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>4</v>
       </c>
@@ -7155,8 +7651,11 @@
       <c r="G164" s="2">
         <v>72.7</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H164" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>4</v>
       </c>
@@ -7178,8 +7677,11 @@
       <c r="G165" s="2">
         <v>74.5</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H165" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>4</v>
       </c>
@@ -7201,8 +7703,11 @@
       <c r="G166" s="2">
         <v>69.599999999999994</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H166" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>4</v>
       </c>
@@ -7224,8 +7729,11 @@
       <c r="G167" s="2">
         <v>70.13</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H167" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>4</v>
       </c>
@@ -7247,8 +7755,11 @@
       <c r="G168" s="2">
         <v>71.03</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H168" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>4</v>
       </c>
@@ -7270,8 +7781,11 @@
       <c r="G169" s="2">
         <v>75.3</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H169" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>4</v>
       </c>
@@ -7293,8 +7807,11 @@
       <c r="G170" s="2">
         <v>72.67</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H170" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>4</v>
       </c>
@@ -7316,8 +7833,11 @@
       <c r="G171" s="2">
         <v>74</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H171" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>4</v>
       </c>
@@ -7339,8 +7859,11 @@
       <c r="G172" s="2">
         <v>75.7</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H172" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>4</v>
       </c>
@@ -7362,8 +7885,11 @@
       <c r="G173" s="2">
         <v>74.73</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H173" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>4</v>
       </c>
@@ -7385,8 +7911,11 @@
       <c r="G174" s="2">
         <v>70.67</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H174" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>4</v>
       </c>
@@ -7408,8 +7937,11 @@
       <c r="G175" s="2">
         <v>68.53</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H175" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>4</v>
       </c>
@@ -7431,8 +7963,11 @@
       <c r="G176" s="2">
         <v>68.930000000000007</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H176" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>4</v>
       </c>
@@ -7454,8 +7989,11 @@
       <c r="G177" s="2">
         <v>72.47</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H177" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>4</v>
       </c>
@@ -7477,8 +8015,11 @@
       <c r="G178" s="2">
         <v>72.33</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H178" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>4</v>
       </c>
@@ -7500,8 +8041,11 @@
       <c r="G179" s="2">
         <v>68.5</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H179" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>4</v>
       </c>
@@ -7523,8 +8067,11 @@
       <c r="G180" s="2">
         <v>71.8</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H180" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>4</v>
       </c>
@@ -7546,8 +8093,11 @@
       <c r="G181" s="2">
         <v>70.77</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H181" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>4</v>
       </c>
@@ -7569,8 +8119,11 @@
       <c r="G182" s="2">
         <v>72.569999999999993</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H182" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>4</v>
       </c>
@@ -7592,8 +8145,11 @@
       <c r="G183" s="2">
         <v>70.23</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H183" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>4</v>
       </c>
@@ -7615,8 +8171,11 @@
       <c r="G184" s="2">
         <v>76.2</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H184" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>4</v>
       </c>
@@ -7638,8 +8197,11 @@
       <c r="G185" s="2">
         <v>70.83</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H185" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>4</v>
       </c>
@@ -7661,8 +8223,11 @@
       <c r="G186" s="2">
         <v>68.33</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H186" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>4</v>
       </c>
@@ -7684,8 +8249,11 @@
       <c r="G187" s="2">
         <v>73.3</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H187" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>4</v>
       </c>
@@ -7707,8 +8275,11 @@
       <c r="G188" s="2">
         <v>70.3</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H188" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>4</v>
       </c>
@@ -7730,8 +8301,11 @@
       <c r="G189" s="2">
         <v>72.069999999999993</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H189" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>4</v>
       </c>
@@ -7753,8 +8327,11 @@
       <c r="G190" s="2">
         <v>71</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H190" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>4</v>
       </c>
@@ -7776,8 +8353,11 @@
       <c r="G191" s="2">
         <v>72.2</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H191" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>4</v>
       </c>
@@ -7799,8 +8379,11 @@
       <c r="G192" s="2">
         <v>73.2</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H192" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>4</v>
       </c>
@@ -7822,8 +8405,11 @@
       <c r="G193" s="2">
         <v>71.569999999999993</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H193" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>4</v>
       </c>
@@ -7845,8 +8431,11 @@
       <c r="G194" s="2">
         <v>69.67</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H194" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>4</v>
       </c>
@@ -7868,8 +8457,11 @@
       <c r="G195" s="2">
         <v>68.63</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H195" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>4</v>
       </c>
@@ -7891,8 +8483,11 @@
       <c r="G196" s="2">
         <v>72</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H196" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>4</v>
       </c>
@@ -7914,8 +8509,11 @@
       <c r="G197" s="2">
         <v>72.97</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H197" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>4</v>
       </c>
@@ -7937,8 +8535,11 @@
       <c r="G198" s="2">
         <v>69.83</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H198" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>4</v>
       </c>
@@ -7960,8 +8561,11 @@
       <c r="G199" s="2">
         <v>69.03</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H199" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>4</v>
       </c>
@@ -7983,8 +8587,11 @@
       <c r="G200" s="2">
         <v>70.599999999999994</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H200" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>4</v>
       </c>
@@ -8006,8 +8613,11 @@
       <c r="G201" s="2">
         <v>74.23</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H201" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>4</v>
       </c>
@@ -8029,8 +8639,11 @@
       <c r="G202" s="2">
         <v>70.7</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H202" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>4</v>
       </c>
@@ -8052,8 +8665,11 @@
       <c r="G203" s="2">
         <v>71.37</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H203" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>4</v>
       </c>
@@ -8075,8 +8691,11 @@
       <c r="G204" s="2">
         <v>71.27</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H204" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>4</v>
       </c>
@@ -8098,8 +8717,11 @@
       <c r="G205" s="2">
         <v>70.47</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H205" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>4</v>
       </c>
@@ -8121,8 +8743,11 @@
       <c r="G206" s="2">
         <v>69.7</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H206" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
         <v>4</v>
       </c>
@@ -8144,8 +8769,11 @@
       <c r="G207" s="2">
         <v>71.63</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H207" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>4</v>
       </c>
@@ -8167,8 +8795,11 @@
       <c r="G208" s="2">
         <v>72.23</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H208" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>4</v>
       </c>
@@ -8190,8 +8821,11 @@
       <c r="G209" s="2">
         <v>69.17</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H209" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>4</v>
       </c>
@@ -8213,8 +8847,11 @@
       <c r="G210" s="2">
         <v>70.3</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H210" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>4</v>
       </c>
@@ -8236,8 +8873,11 @@
       <c r="G211" s="2">
         <v>71.069999999999993</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H211" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>4</v>
       </c>
@@ -8259,8 +8899,11 @@
       <c r="G212" s="2">
         <v>72.8</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H212" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
         <v>4</v>
       </c>
@@ -8282,8 +8925,11 @@
       <c r="G213" s="2">
         <v>69.3</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H213" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
         <v>4</v>
       </c>
@@ -8305,8 +8951,11 @@
       <c r="G214" s="2">
         <v>69.83</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H214" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
         <v>4</v>
       </c>
@@ -8328,8 +8977,11 @@
       <c r="G215" s="2">
         <v>68.37</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H215" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
         <v>4</v>
       </c>
@@ -8351,8 +9003,11 @@
       <c r="G216" s="2">
         <v>69.27</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H216" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
         <v>4</v>
       </c>
@@ -8374,8 +9029,11 @@
       <c r="G217" s="2">
         <v>69.27</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H217" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
         <v>4</v>
       </c>
@@ -8397,8 +9055,11 @@
       <c r="G218" s="2">
         <v>69.03</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H218" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
         <v>4</v>
       </c>
@@ -8420,8 +9081,11 @@
       <c r="G219" s="2">
         <v>70.83</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H219" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
         <v>4</v>
       </c>
@@ -8443,8 +9107,11 @@
       <c r="G220" s="2">
         <v>72.2</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H220" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
         <v>4</v>
       </c>
@@ -8466,8 +9133,11 @@
       <c r="G221" s="2">
         <v>71.53</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H221" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
         <v>4</v>
       </c>
@@ -8489,8 +9159,11 @@
       <c r="G222" s="2">
         <v>68.83</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H222" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
         <v>4</v>
       </c>
@@ -8512,8 +9185,11 @@
       <c r="G223" s="2">
         <v>71.430000000000007</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H223" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
         <v>4</v>
       </c>
@@ -8535,8 +9211,11 @@
       <c r="G224" s="2">
         <v>70.2</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H224" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
         <v>4</v>
       </c>
@@ -8558,8 +9237,11 @@
       <c r="G225" s="2">
         <v>70.33</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H225" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>4</v>
       </c>
@@ -8581,8 +9263,11 @@
       <c r="G226" s="2">
         <v>72.33</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H226" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
         <v>4</v>
       </c>
@@ -8604,8 +9289,11 @@
       <c r="G227" s="2">
         <v>70.77</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H227" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
         <v>4</v>
       </c>
@@ -8627,8 +9315,11 @@
       <c r="G228" s="2">
         <v>77</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H228" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>4</v>
       </c>
@@ -8650,8 +9341,11 @@
       <c r="G229" s="2">
         <v>72.099999999999994</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H229" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
         <v>4</v>
       </c>
@@ -8673,8 +9367,11 @@
       <c r="G230" s="2">
         <v>70.63</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H230" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
         <v>4</v>
       </c>
@@ -8696,8 +9393,11 @@
       <c r="G231" s="2">
         <v>73.17</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H231" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
         <v>4</v>
       </c>
@@ -8719,8 +9419,11 @@
       <c r="G232" s="2">
         <v>73.430000000000007</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H232" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
         <v>4</v>
       </c>
@@ -8742,8 +9445,11 @@
       <c r="G233" s="2">
         <v>71.23</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H233" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>4</v>
       </c>
@@ -8765,8 +9471,11 @@
       <c r="G234" s="2">
         <v>73</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H234" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
         <v>4</v>
       </c>
@@ -8788,8 +9497,11 @@
       <c r="G235" s="2">
         <v>69.400000000000006</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H235" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
         <v>4</v>
       </c>
@@ -8811,8 +9523,11 @@
       <c r="G236" s="2">
         <v>72</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H236" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
         <v>4</v>
       </c>
@@ -8834,8 +9549,11 @@
       <c r="G237" s="2">
         <v>72.23</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H237" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
         <v>4</v>
       </c>
@@ -8857,8 +9575,11 @@
       <c r="G238" s="2">
         <v>72.23</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H238" s="2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
         <v>4</v>
       </c>
@@ -8879,6 +9600,9 @@
       </c>
       <c r="G239" s="2">
         <v>72.67</v>
+      </c>
+      <c r="H239" s="2">
+        <v>28000</v>
       </c>
     </row>
   </sheetData>
